--- a/analytics/Ленинградская область/семьи.xlsx
+++ b/analytics/Ленинградская область/семьи.xlsx
@@ -18,6 +18,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
+    <t>Год</t>
+  </si>
+  <si>
     <t>Город</t>
   </si>
   <si>
@@ -30,16 +33,13 @@
     <t>Многодетные</t>
   </si>
   <si>
-    <t>Всего</t>
+    <t>Всего население</t>
   </si>
   <si>
     <t>Санкт -петербург</t>
   </si>
   <si>
     <t>Республика Карелия</t>
-  </si>
-  <si>
-    <t>примерно 50000</t>
   </si>
   <si>
     <t>609 071</t>
@@ -65,23 +65,34 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
       <color rgb="FF343434"/>
-      <name val="PT Serif"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="14.0"/>
+      <sz val="12.0"/>
       <color rgb="FF202122"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,16 +101,34 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -317,66 +346,128 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="3" width="8.33"/>
-    <col customWidth="1" min="4" max="4" width="19.0"/>
-    <col customWidth="1" min="5" max="26" width="8.33"/>
+    <col customWidth="1" min="4" max="4" width="12.0"/>
+    <col customWidth="1" min="5" max="5" width="8.33"/>
+    <col customWidth="1" min="6" max="6" width="8.67"/>
+    <col customWidth="1" min="7" max="7" width="11.56"/>
+    <col customWidth="1" min="8" max="8" width="14.11"/>
+    <col customWidth="1" min="9" max="26" width="8.33"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5">
+        <v>2020.0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7">
+        <v>602174.0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>897200.0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>47000.0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5398000.0</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5">
+        <v>2020.0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8">
+        <v>50000.0</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2">
-        <v>2020.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>602174.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>897200.0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>47000.0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>5398000.0</v>
-      </c>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="I8" s="4"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
     <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -1367,11 +1458,10 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
